--- a/3-1.ds stack/resource/ds-stack-o1.xlsx
+++ b/3-1.ds stack/resource/ds-stack-o1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AeroCode\Desktop\MyProject\node-napi-benchmark\3-1.ds stack\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D1219-A96B-4691-A733-B70255F8ADBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0472533-82CF-4C8D-85B9-7CDCD019A61D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{495E4641-9371-49E1-9625-91E4161970A5}"/>
   </bookViews>
@@ -321,40 +321,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>379</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3449</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>470</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>812</c:v>
+                  <c:v>4178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3582</c:v>
+                  <c:v>3608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,40 +675,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>379</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3449</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>470</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>812</c:v>
+                  <c:v>4178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3582</c:v>
+                  <c:v>3608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,7 +835,6 @@
         <c:axId val="1704127392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="54000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1364,7 +1363,7 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1392,11 +1391,11 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E14" si="0">SUM(D3:D3)</f>
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -1405,11 +1404,11 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -1417,11 +1416,11 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -1429,11 +1428,11 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1444,11 +1443,11 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1456,11 +1455,11 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1468,11 +1467,11 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>165</v>
+        <v>483</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1480,11 +1479,11 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -1495,11 +1494,11 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>3449</v>
+        <v>3400</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3449</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -1507,11 +1506,11 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>470</v>
+        <v>1131</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -1519,11 +1518,11 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>812</v>
+        <v>4178</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>812</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
@@ -1531,11 +1530,11 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>3582</v>
+        <v>3608</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3582</v>
+        <v>3608</v>
       </c>
     </row>
   </sheetData>
@@ -1553,6 +1552,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101002000BFFA108DB047B3EFC5DDF5207AF1" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="360e30c3308fc58e22752f98ab7121e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0f80c752-7000-4b24-82e0-cc1a08bf636a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0602d9b23f70dd89cb9d3785157d2296" ns3:_="">
     <xsd:import namespace="0f80c752-7000-4b24-82e0-cc1a08bf636a"/>
@@ -1684,15 +1692,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ECB2419-4549-41F4-A2F0-D5D48E12DC82}">
   <ds:schemaRefs>
@@ -1710,6 +1709,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCEE90F-47AC-44EC-AE83-3091D9608E0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB26047-8973-49C2-879F-B7DE90AED6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1725,12 +1732,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCEE90F-47AC-44EC-AE83-3091D9608E0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>